--- a/Additional_Codes/Fast-Bool/OUTPUT/sclcnetwork/Summary_Async.xlsx
+++ b/Additional_Codes/Fast-Bool/OUTPUT/sclcnetwork/Summary_Async.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="52">
   <si>
     <t>ASCL1</t>
   </si>
@@ -124,55 +124,52 @@
     <t>Fixed point</t>
   </si>
   <si>
+    <t>1.0</t>
+  </si>
+  <si>
     <t>-1.0</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>255982</t>
+    <t>267912</t>
+  </si>
+  <si>
+    <t>0.14565826330532214</t>
+  </si>
+  <si>
+    <t>255906</t>
   </si>
   <si>
     <t>0.14285714285714285</t>
   </si>
   <si>
-    <t>268326</t>
-  </si>
-  <si>
-    <t>0.14565826330532214</t>
-  </si>
-  <si>
-    <t>255719</t>
-  </si>
-  <si>
-    <t>267217</t>
-  </si>
-  <si>
-    <t>112</t>
+    <t>255131</t>
+  </si>
+  <si>
+    <t>268267</t>
+  </si>
+  <si>
+    <t>453</t>
+  </si>
+  <si>
+    <t>0.3753501400560224</t>
+  </si>
+  <si>
+    <t>120</t>
   </si>
   <si>
     <t>0.38375350140056025</t>
   </si>
   <si>
-    <t>467</t>
-  </si>
-  <si>
-    <t>0.3753501400560224</t>
-  </si>
-  <si>
-    <t>429</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>91</t>
+    <t>469</t>
+  </si>
+  <si>
+    <t>95</t>
   </si>
   <si>
     <t>0.3865546218487395</t>
   </si>
   <si>
-    <t>110</t>
+    <t>103</t>
   </si>
 </sst>
 </file>
@@ -628,103 +625,103 @@
       <c r="A2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
         <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH2" t="s">
         <v>37</v>
       </c>
       <c r="AJ2" t="s">
@@ -738,103 +735,103 @@
       <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="S3" t="s">
-        <v>36</v>
-      </c>
-      <c r="T3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AJ3" t="s">
@@ -849,109 +846,109 @@
         <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AG4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AH4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AJ4" t="s">
         <v>42</v>
       </c>
       <c r="AK4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -959,212 +956,212 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AJ5" t="s">
         <v>43</v>
       </c>
       <c r="AK5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:37">
       <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" t="s">
         <v>37</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T6" t="s">
-        <v>36</v>
-      </c>
-      <c r="U6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="V6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Z6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AC6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD6" t="s">
         <v>37</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH6" t="s">
         <v>37</v>
       </c>
       <c r="AJ6" t="s">
@@ -1178,103 +1175,103 @@
       <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" t="s">
         <v>37</v>
       </c>
       <c r="Q7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T7" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="X7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD7" t="s">
         <v>37</v>
       </c>
       <c r="AE7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH7" t="s">
         <v>37</v>
       </c>
       <c r="AJ7" t="s">
@@ -1288,110 +1285,110 @@
       <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R8" t="s">
-        <v>36</v>
-      </c>
-      <c r="S8" t="s">
-        <v>36</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V8" t="s">
-        <v>36</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH8" t="s">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" t="s">
+        <v>37</v>
+      </c>
+      <c r="U8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W8" t="s">
+        <v>37</v>
+      </c>
+      <c r="X8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AJ8" t="s">
         <v>48</v>
       </c>
       <c r="AK8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -1399,219 +1396,219 @@
         <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" t="s">
         <v>37</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AH9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AJ9" t="s">
         <v>49</v>
       </c>
       <c r="AK9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:37">
       <c r="A10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O10" t="s">
-        <v>36</v>
-      </c>
-      <c r="P10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>36</v>
-      </c>
-      <c r="R10" t="s">
-        <v>36</v>
-      </c>
-      <c r="S10" t="s">
-        <v>36</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH10" t="s">
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" t="s">
+        <v>37</v>
+      </c>
+      <c r="U10" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" t="s">
+        <v>37</v>
+      </c>
+      <c r="W10" t="s">
+        <v>37</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AJ10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK10" t="s">
         <v>50</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -1619,109 +1616,109 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" t="s">
         <v>37</v>
       </c>
       <c r="M11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AJ11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AK11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
